--- a/20 June 2022 ASDE Training - TOC-updated.xlsx
+++ b/20 June 2022 ASDE Training - TOC-updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Local disk\sapient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65C1C23-16C0-4030-998D-58B158D459F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06DF349-BE81-4DC8-8161-53ABE1867A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4579,6 +4579,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4586,15 +4595,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5060,8 +5060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D346" sqref="D346"/>
+    <sheetView tabSelected="1" topLeftCell="A533" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D607" sqref="D607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -7216,7 +7216,7 @@
       <c r="A192" s="29"/>
       <c r="B192" s="29"/>
       <c r="C192" s="20"/>
-      <c r="D192" s="57" t="s">
+      <c r="D192" s="54" t="s">
         <v>213</v>
       </c>
       <c r="E192" s="14"/>
@@ -7227,7 +7227,7 @@
       <c r="A193" s="29"/>
       <c r="B193" s="29"/>
       <c r="C193" s="26"/>
-      <c r="D193" s="58" t="s">
+      <c r="D193" s="55" t="s">
         <v>159</v>
       </c>
       <c r="E193" s="13"/>
@@ -7238,7 +7238,7 @@
       <c r="A194" s="29"/>
       <c r="B194" s="29"/>
       <c r="C194" s="26"/>
-      <c r="D194" s="58" t="s">
+      <c r="D194" s="55" t="s">
         <v>160</v>
       </c>
       <c r="E194" s="13"/>
@@ -7249,7 +7249,7 @@
       <c r="A195" s="29"/>
       <c r="B195" s="29"/>
       <c r="C195" s="26"/>
-      <c r="D195" s="58" t="s">
+      <c r="D195" s="55" t="s">
         <v>161</v>
       </c>
       <c r="E195" s="13"/>
@@ -7260,7 +7260,7 @@
       <c r="A196" s="29"/>
       <c r="B196" s="29"/>
       <c r="C196" s="26"/>
-      <c r="D196" s="58" t="s">
+      <c r="D196" s="55" t="s">
         <v>162</v>
       </c>
       <c r="E196" s="13"/>
@@ -7271,7 +7271,7 @@
       <c r="A197" s="29"/>
       <c r="B197" s="29"/>
       <c r="C197" s="26"/>
-      <c r="D197" s="58" t="s">
+      <c r="D197" s="55" t="s">
         <v>163</v>
       </c>
       <c r="E197" s="13"/>
@@ -7282,7 +7282,7 @@
       <c r="A198" s="29"/>
       <c r="B198" s="29"/>
       <c r="C198" s="26"/>
-      <c r="D198" s="58" t="s">
+      <c r="D198" s="55" t="s">
         <v>164</v>
       </c>
       <c r="E198" s="13"/>
@@ -7293,7 +7293,7 @@
       <c r="A199" s="29"/>
       <c r="B199" s="29"/>
       <c r="C199" s="26"/>
-      <c r="D199" s="58" t="s">
+      <c r="D199" s="55" t="s">
         <v>165</v>
       </c>
       <c r="E199" s="13"/>
@@ -7304,7 +7304,7 @@
       <c r="A200" s="29"/>
       <c r="B200" s="29"/>
       <c r="C200" s="26"/>
-      <c r="D200" s="58" t="s">
+      <c r="D200" s="55" t="s">
         <v>166</v>
       </c>
       <c r="E200" s="13"/>
@@ -7315,7 +7315,7 @@
       <c r="A201" s="29"/>
       <c r="B201" s="29"/>
       <c r="C201" s="26"/>
-      <c r="D201" s="58" t="s">
+      <c r="D201" s="55" t="s">
         <v>167</v>
       </c>
       <c r="E201" s="13"/>
@@ -7326,7 +7326,7 @@
       <c r="A202" s="29"/>
       <c r="B202" s="29"/>
       <c r="C202" s="26"/>
-      <c r="D202" s="58" t="s">
+      <c r="D202" s="55" t="s">
         <v>168</v>
       </c>
       <c r="E202" s="13"/>
@@ -7337,7 +7337,7 @@
       <c r="A203" s="29"/>
       <c r="B203" s="29"/>
       <c r="C203" s="26"/>
-      <c r="D203" s="58" t="s">
+      <c r="D203" s="55" t="s">
         <v>169</v>
       </c>
       <c r="E203" s="13"/>
@@ -7348,7 +7348,7 @@
       <c r="A204" s="29"/>
       <c r="B204" s="29"/>
       <c r="C204" s="26"/>
-      <c r="D204" s="58" t="s">
+      <c r="D204" s="55" t="s">
         <v>170</v>
       </c>
       <c r="E204" s="13"/>
@@ -7359,7 +7359,7 @@
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="26"/>
-      <c r="D205" s="58" t="s">
+      <c r="D205" s="55" t="s">
         <v>171</v>
       </c>
       <c r="E205" s="13"/>
@@ -7370,7 +7370,7 @@
       <c r="A206" s="29"/>
       <c r="B206" s="29"/>
       <c r="C206" s="26"/>
-      <c r="D206" s="58" t="s">
+      <c r="D206" s="55" t="s">
         <v>172</v>
       </c>
       <c r="E206" s="13"/>
@@ -7381,7 +7381,7 @@
       <c r="A207" s="29"/>
       <c r="B207" s="29"/>
       <c r="C207" s="26"/>
-      <c r="D207" s="58" t="s">
+      <c r="D207" s="55" t="s">
         <v>173</v>
       </c>
       <c r="E207" s="13"/>
@@ -7392,7 +7392,7 @@
       <c r="A208" s="29"/>
       <c r="B208" s="29"/>
       <c r="C208" s="26"/>
-      <c r="D208" s="58" t="s">
+      <c r="D208" s="55" t="s">
         <v>174</v>
       </c>
       <c r="E208" s="13"/>
@@ -7403,7 +7403,7 @@
       <c r="A209" s="29"/>
       <c r="B209" s="29"/>
       <c r="C209" s="26"/>
-      <c r="D209" s="58" t="s">
+      <c r="D209" s="55" t="s">
         <v>175</v>
       </c>
       <c r="E209" s="13"/>
@@ -7414,7 +7414,7 @@
       <c r="A210" s="29"/>
       <c r="B210" s="29"/>
       <c r="C210" s="26"/>
-      <c r="D210" s="58" t="s">
+      <c r="D210" s="55" t="s">
         <v>176</v>
       </c>
       <c r="E210" s="13"/>
@@ -7425,7 +7425,7 @@
       <c r="A211" s="29"/>
       <c r="B211" s="29"/>
       <c r="C211" s="26"/>
-      <c r="D211" s="58" t="s">
+      <c r="D211" s="55" t="s">
         <v>177</v>
       </c>
       <c r="E211" s="13"/>
@@ -7436,7 +7436,7 @@
       <c r="A212" s="29"/>
       <c r="B212" s="29"/>
       <c r="C212" s="26"/>
-      <c r="D212" s="58" t="s">
+      <c r="D212" s="55" t="s">
         <v>178</v>
       </c>
       <c r="E212" s="13"/>
@@ -7458,7 +7458,7 @@
       <c r="A214" s="29"/>
       <c r="B214" s="29"/>
       <c r="C214" s="20"/>
-      <c r="D214" s="58" t="s">
+      <c r="D214" s="55" t="s">
         <v>214</v>
       </c>
       <c r="E214" s="15"/>
@@ -7469,7 +7469,7 @@
       <c r="A215" s="29"/>
       <c r="B215" s="29"/>
       <c r="C215" s="20"/>
-      <c r="D215" s="58" t="s">
+      <c r="D215" s="55" t="s">
         <v>215</v>
       </c>
       <c r="E215" s="16"/>
@@ -7480,7 +7480,7 @@
       <c r="A216" s="29"/>
       <c r="B216" s="29"/>
       <c r="C216" s="20"/>
-      <c r="D216" s="59" t="s">
+      <c r="D216" s="56" t="s">
         <v>216</v>
       </c>
       <c r="E216" s="17"/>
@@ -7491,7 +7491,7 @@
       <c r="A217" s="29"/>
       <c r="B217" s="29"/>
       <c r="C217" s="20"/>
-      <c r="D217" s="58" t="s">
+      <c r="D217" s="55" t="s">
         <v>217</v>
       </c>
       <c r="E217" s="17"/>
@@ -7502,7 +7502,7 @@
       <c r="A218" s="29"/>
       <c r="B218" s="29"/>
       <c r="C218" s="20"/>
-      <c r="D218" s="58" t="s">
+      <c r="D218" s="55" t="s">
         <v>218</v>
       </c>
       <c r="E218" s="17"/>
@@ -7513,7 +7513,7 @@
       <c r="A219" s="29"/>
       <c r="B219" s="29"/>
       <c r="C219" s="20"/>
-      <c r="D219" s="57"/>
+      <c r="D219" s="54"/>
       <c r="E219" s="17"/>
       <c r="F219" s="17"/>
       <c r="G219" s="9"/>
@@ -7522,7 +7522,7 @@
       <c r="A220" s="29"/>
       <c r="B220" s="29"/>
       <c r="C220" s="20"/>
-      <c r="D220" s="57"/>
+      <c r="D220" s="54"/>
       <c r="E220" s="17"/>
       <c r="F220" s="17"/>
       <c r="G220" s="9"/>
@@ -7531,7 +7531,7 @@
       <c r="A221" s="29"/>
       <c r="B221" s="29"/>
       <c r="C221" s="20"/>
-      <c r="D221" s="57"/>
+      <c r="D221" s="54"/>
       <c r="E221" s="17"/>
       <c r="F221" s="17"/>
       <c r="G221" s="9"/>
@@ -7540,7 +7540,7 @@
       <c r="A222" s="29"/>
       <c r="B222" s="29"/>
       <c r="C222" s="20"/>
-      <c r="D222" s="57"/>
+      <c r="D222" s="54"/>
       <c r="E222" s="17"/>
       <c r="F222" s="17"/>
       <c r="G222" s="9"/>
@@ -7549,7 +7549,7 @@
       <c r="A223" s="29"/>
       <c r="B223" s="29"/>
       <c r="C223" s="20"/>
-      <c r="D223" s="57"/>
+      <c r="D223" s="54"/>
       <c r="E223" s="17"/>
       <c r="F223" s="17"/>
       <c r="G223" s="9"/>
@@ -7558,7 +7558,7 @@
       <c r="A224" s="29"/>
       <c r="B224" s="29"/>
       <c r="C224" s="20"/>
-      <c r="D224" s="57"/>
+      <c r="D224" s="54"/>
       <c r="E224" s="17"/>
       <c r="F224" s="17"/>
       <c r="G224" s="9"/>
@@ -7567,7 +7567,7 @@
       <c r="A225" s="29"/>
       <c r="B225" s="29"/>
       <c r="C225" s="20"/>
-      <c r="D225" s="57"/>
+      <c r="D225" s="54"/>
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
       <c r="G225" s="9"/>
@@ -7576,7 +7576,7 @@
       <c r="A226" s="29"/>
       <c r="B226" s="29"/>
       <c r="C226" s="20"/>
-      <c r="D226" s="57"/>
+      <c r="D226" s="54"/>
       <c r="E226" s="17"/>
       <c r="F226" s="17"/>
       <c r="G226" s="9"/>
@@ -7585,7 +7585,7 @@
       <c r="A227" s="29"/>
       <c r="B227" s="29"/>
       <c r="C227" s="20"/>
-      <c r="D227" s="57"/>
+      <c r="D227" s="54"/>
       <c r="E227" s="17"/>
       <c r="F227" s="17"/>
       <c r="G227" s="9"/>
@@ -7594,7 +7594,7 @@
       <c r="A228" s="29"/>
       <c r="B228" s="29"/>
       <c r="C228" s="20"/>
-      <c r="D228" s="57"/>
+      <c r="D228" s="54"/>
       <c r="E228" s="17"/>
       <c r="F228" s="17"/>
       <c r="G228" s="9"/>
@@ -7603,7 +7603,7 @@
       <c r="A229" s="29"/>
       <c r="B229" s="29"/>
       <c r="C229" s="20"/>
-      <c r="D229" s="57"/>
+      <c r="D229" s="54"/>
       <c r="E229" s="17"/>
       <c r="F229" s="17"/>
       <c r="G229" s="9"/>
@@ -7612,7 +7612,7 @@
       <c r="A230" s="29"/>
       <c r="B230" s="29"/>
       <c r="C230" s="20"/>
-      <c r="D230" s="57"/>
+      <c r="D230" s="54"/>
       <c r="E230" s="17"/>
       <c r="F230" s="17"/>
       <c r="G230" s="9"/>
@@ -7621,7 +7621,7 @@
       <c r="A231" s="29"/>
       <c r="B231" s="29"/>
       <c r="C231" s="20"/>
-      <c r="D231" s="57"/>
+      <c r="D231" s="54"/>
       <c r="E231" s="17"/>
       <c r="F231" s="17"/>
       <c r="G231" s="9"/>
@@ -7630,7 +7630,7 @@
       <c r="A232" s="29"/>
       <c r="B232" s="29"/>
       <c r="C232" s="20"/>
-      <c r="D232" s="57"/>
+      <c r="D232" s="54"/>
       <c r="E232" s="17"/>
       <c r="F232" s="17"/>
       <c r="G232" s="9"/>
@@ -7639,7 +7639,7 @@
       <c r="A233" s="29"/>
       <c r="B233" s="29"/>
       <c r="C233" s="20"/>
-      <c r="D233" s="57"/>
+      <c r="D233" s="54"/>
       <c r="E233" s="17"/>
       <c r="F233" s="17"/>
       <c r="G233" s="9"/>
@@ -7648,7 +7648,7 @@
       <c r="A234" s="29"/>
       <c r="B234" s="29"/>
       <c r="C234" s="20"/>
-      <c r="D234" s="57" t="s">
+      <c r="D234" s="54" t="s">
         <v>215</v>
       </c>
       <c r="E234" s="12"/>
@@ -7670,7 +7670,7 @@
       <c r="A236" s="29"/>
       <c r="B236" s="29"/>
       <c r="C236" s="20"/>
-      <c r="D236" s="57" t="s">
+      <c r="D236" s="54" t="s">
         <v>217</v>
       </c>
       <c r="E236" s="12"/>
@@ -7681,7 +7681,7 @@
       <c r="A237" s="29"/>
       <c r="B237" s="29"/>
       <c r="C237" s="20"/>
-      <c r="D237" s="57" t="s">
+      <c r="D237" s="54" t="s">
         <v>218</v>
       </c>
       <c r="E237" s="12"/>
@@ -7692,7 +7692,7 @@
       <c r="A238" s="29"/>
       <c r="B238" s="29"/>
       <c r="C238" s="20"/>
-      <c r="D238" s="57" t="s">
+      <c r="D238" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E238" s="12"/>
@@ -7714,7 +7714,7 @@
       <c r="A240" s="29"/>
       <c r="B240" s="29"/>
       <c r="C240" s="20"/>
-      <c r="D240" s="57" t="s">
+      <c r="D240" s="54" t="s">
         <v>221</v>
       </c>
       <c r="E240" s="12"/>
@@ -7725,7 +7725,7 @@
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="20"/>
-      <c r="D241" s="57" t="s">
+      <c r="D241" s="54" t="s">
         <v>222</v>
       </c>
       <c r="E241" s="12"/>
@@ -7736,7 +7736,7 @@
       <c r="A242" s="29"/>
       <c r="B242" s="29"/>
       <c r="C242" s="20"/>
-      <c r="D242" s="58" t="s">
+      <c r="D242" s="55" t="s">
         <v>223</v>
       </c>
       <c r="E242" s="12"/>
@@ -7769,7 +7769,7 @@
       <c r="A245" s="29"/>
       <c r="B245" s="29"/>
       <c r="C245" s="20"/>
-      <c r="D245" s="58" t="s">
+      <c r="D245" s="55" t="s">
         <v>226</v>
       </c>
       <c r="E245" s="12"/>
@@ -7791,7 +7791,7 @@
       <c r="A247" s="29"/>
       <c r="B247" s="29"/>
       <c r="C247" s="20"/>
-      <c r="D247" s="58" t="s">
+      <c r="D247" s="55" t="s">
         <v>228</v>
       </c>
       <c r="E247" s="11"/>
@@ -8150,7 +8150,7 @@
       <c r="A286" s="29"/>
       <c r="B286" s="29"/>
       <c r="C286" s="20"/>
-      <c r="D286" s="58" t="s">
+      <c r="D286" s="55" t="s">
         <v>232</v>
       </c>
       <c r="E286" s="12"/>
@@ -8161,7 +8161,7 @@
       <c r="A287" s="29"/>
       <c r="B287" s="29"/>
       <c r="C287" s="20"/>
-      <c r="D287" s="58" t="s">
+      <c r="D287" s="55" t="s">
         <v>233</v>
       </c>
       <c r="E287" s="12"/>
@@ -8172,7 +8172,7 @@
       <c r="A288" s="29"/>
       <c r="B288" s="29"/>
       <c r="C288" s="20"/>
-      <c r="D288" s="58" t="s">
+      <c r="D288" s="55" t="s">
         <v>234</v>
       </c>
       <c r="E288" s="12"/>
@@ -8183,7 +8183,7 @@
       <c r="A289" s="29"/>
       <c r="B289" s="29"/>
       <c r="C289" s="20"/>
-      <c r="D289" s="58" t="s">
+      <c r="D289" s="55" t="s">
         <v>235</v>
       </c>
       <c r="E289" s="12"/>
@@ -8194,7 +8194,7 @@
       <c r="A290" s="29"/>
       <c r="B290" s="29"/>
       <c r="C290" s="20"/>
-      <c r="D290" s="58" t="s">
+      <c r="D290" s="55" t="s">
         <v>236</v>
       </c>
       <c r="E290" s="12"/>
@@ -8205,7 +8205,7 @@
       <c r="A291" s="29"/>
       <c r="B291" s="29"/>
       <c r="C291" s="20"/>
-      <c r="D291" s="58" t="s">
+      <c r="D291" s="55" t="s">
         <v>237</v>
       </c>
       <c r="E291" s="11"/>
@@ -8260,7 +8260,7 @@
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="27"/>
-      <c r="D296" s="58" t="s">
+      <c r="D296" s="55" t="s">
         <v>238</v>
       </c>
       <c r="E296" s="12"/>
@@ -8315,7 +8315,7 @@
       <c r="A301" s="29"/>
       <c r="B301" s="29"/>
       <c r="C301" s="27"/>
-      <c r="D301" s="58" t="s">
+      <c r="D301" s="55" t="s">
         <v>243</v>
       </c>
       <c r="E301" s="12"/>
@@ -8328,7 +8328,7 @@
       <c r="C302" s="26" t="s">
         <v>783</v>
       </c>
-      <c r="D302" s="58" t="s">
+      <c r="D302" s="55" t="s">
         <v>244</v>
       </c>
       <c r="E302" s="15"/>
@@ -8361,7 +8361,7 @@
       <c r="A305" s="29"/>
       <c r="B305" s="29"/>
       <c r="C305" s="26"/>
-      <c r="D305" s="58" t="s">
+      <c r="D305" s="55" t="s">
         <v>246</v>
       </c>
       <c r="E305" s="13"/>
@@ -8372,7 +8372,7 @@
       <c r="A306" s="29"/>
       <c r="B306" s="29"/>
       <c r="C306" s="26"/>
-      <c r="D306" s="58" t="s">
+      <c r="D306" s="55" t="s">
         <v>247</v>
       </c>
       <c r="E306" s="13"/>
@@ -8394,7 +8394,7 @@
       <c r="A308" s="29"/>
       <c r="B308" s="29"/>
       <c r="C308" s="26"/>
-      <c r="D308" s="58" t="s">
+      <c r="D308" s="55" t="s">
         <v>249</v>
       </c>
       <c r="E308" s="13"/>
@@ -8416,7 +8416,7 @@
       <c r="A310" s="29"/>
       <c r="B310" s="29"/>
       <c r="C310" s="26"/>
-      <c r="D310" s="58" t="s">
+      <c r="D310" s="55" t="s">
         <v>251</v>
       </c>
       <c r="E310" s="13"/>
@@ -8427,7 +8427,7 @@
       <c r="A311" s="29"/>
       <c r="B311" s="29"/>
       <c r="C311" s="26"/>
-      <c r="D311" s="58" t="s">
+      <c r="D311" s="55" t="s">
         <v>252</v>
       </c>
       <c r="E311" s="13"/>
@@ -8482,7 +8482,7 @@
       <c r="A316" s="29"/>
       <c r="B316" s="29"/>
       <c r="C316" s="26"/>
-      <c r="D316" s="3" t="s">
+      <c r="D316" s="55" t="s">
         <v>257</v>
       </c>
       <c r="E316" s="13"/>
@@ -8572,7 +8572,7 @@
       <c r="A324" s="29"/>
       <c r="B324" s="29"/>
       <c r="C324" s="26"/>
-      <c r="D324" s="58" t="s">
+      <c r="D324" s="55" t="s">
         <v>264</v>
       </c>
       <c r="E324" s="13"/>
@@ -8583,7 +8583,7 @@
       <c r="A325" s="29"/>
       <c r="B325" s="29"/>
       <c r="C325" s="26"/>
-      <c r="D325" s="58" t="s">
+      <c r="D325" s="55" t="s">
         <v>265</v>
       </c>
       <c r="E325" s="13"/>
@@ -8660,7 +8660,7 @@
       <c r="A332" s="29"/>
       <c r="B332" s="29"/>
       <c r="C332" s="26"/>
-      <c r="D332" s="3" t="s">
+      <c r="D332" s="55" t="s">
         <v>272</v>
       </c>
       <c r="E332" s="13"/>
@@ -8671,7 +8671,7 @@
       <c r="A333" s="29"/>
       <c r="B333" s="29"/>
       <c r="C333" s="26"/>
-      <c r="D333" s="3" t="s">
+      <c r="D333" s="55" t="s">
         <v>273</v>
       </c>
       <c r="E333" s="13"/>
@@ -8682,7 +8682,7 @@
       <c r="A334" s="29"/>
       <c r="B334" s="29"/>
       <c r="C334" s="26"/>
-      <c r="D334" s="3" t="s">
+      <c r="D334" s="55" t="s">
         <v>274</v>
       </c>
       <c r="E334" s="13"/>
@@ -8792,7 +8792,7 @@
       <c r="A344" s="29"/>
       <c r="B344" s="29"/>
       <c r="C344" s="26"/>
-      <c r="D344" s="3" t="s">
+      <c r="D344" s="55" t="s">
         <v>284</v>
       </c>
       <c r="E344" s="13"/>
@@ -8814,7 +8814,7 @@
       <c r="A346" s="29"/>
       <c r="B346" s="29"/>
       <c r="C346" s="26"/>
-      <c r="D346" s="3" t="s">
+      <c r="D346" s="55" t="s">
         <v>286</v>
       </c>
       <c r="E346" s="13"/>
@@ -9326,7 +9326,7 @@
       <c r="A392" s="29"/>
       <c r="B392" s="29"/>
       <c r="C392" s="26"/>
-      <c r="D392" s="2" t="s">
+      <c r="D392" s="56" t="s">
         <v>331</v>
       </c>
       <c r="E392" s="15"/>
@@ -9337,7 +9337,7 @@
       <c r="A393" s="29"/>
       <c r="B393" s="29"/>
       <c r="C393" s="26"/>
-      <c r="D393" s="3" t="s">
+      <c r="D393" s="55" t="s">
         <v>332</v>
       </c>
       <c r="E393" s="13"/>
@@ -9348,7 +9348,7 @@
       <c r="A394" s="29"/>
       <c r="B394" s="29"/>
       <c r="C394" s="26"/>
-      <c r="D394" s="3" t="s">
+      <c r="D394" s="55" t="s">
         <v>333</v>
       </c>
       <c r="E394" s="13"/>
@@ -9370,7 +9370,7 @@
       <c r="A396" s="29"/>
       <c r="B396" s="29"/>
       <c r="C396" s="26"/>
-      <c r="D396" s="3" t="s">
+      <c r="D396" s="55" t="s">
         <v>335</v>
       </c>
       <c r="E396" s="13"/>
@@ -9381,7 +9381,7 @@
       <c r="A397" s="29"/>
       <c r="B397" s="29"/>
       <c r="C397" s="26"/>
-      <c r="D397" s="3" t="s">
+      <c r="D397" s="55" t="s">
         <v>336</v>
       </c>
       <c r="E397" s="13"/>
@@ -9392,7 +9392,7 @@
       <c r="A398" s="29"/>
       <c r="B398" s="29"/>
       <c r="C398" s="26"/>
-      <c r="D398" s="3" t="s">
+      <c r="D398" s="55" t="s">
         <v>337</v>
       </c>
       <c r="E398" s="13"/>
@@ -9425,7 +9425,7 @@
       <c r="A401" s="29"/>
       <c r="B401" s="29"/>
       <c r="C401" s="26"/>
-      <c r="D401" s="3" t="s">
+      <c r="D401" s="55" t="s">
         <v>340</v>
       </c>
       <c r="E401" s="13"/>
@@ -9436,7 +9436,7 @@
       <c r="A402" s="29"/>
       <c r="B402" s="29"/>
       <c r="C402" s="26"/>
-      <c r="D402" s="3" t="s">
+      <c r="D402" s="55" t="s">
         <v>341</v>
       </c>
       <c r="E402" s="13"/>
@@ -9458,7 +9458,7 @@
       <c r="A404" s="29"/>
       <c r="B404" s="29"/>
       <c r="C404" s="26"/>
-      <c r="D404" s="3" t="s">
+      <c r="D404" s="55" t="s">
         <v>343</v>
       </c>
       <c r="E404" s="13"/>
@@ -9469,7 +9469,7 @@
       <c r="A405" s="29"/>
       <c r="B405" s="29"/>
       <c r="C405" s="26"/>
-      <c r="D405" s="3" t="s">
+      <c r="D405" s="55" t="s">
         <v>344</v>
       </c>
       <c r="E405" s="13"/>
@@ -9480,7 +9480,7 @@
       <c r="A406" s="29"/>
       <c r="B406" s="29"/>
       <c r="C406" s="26"/>
-      <c r="D406" s="3" t="s">
+      <c r="D406" s="55" t="s">
         <v>345</v>
       </c>
       <c r="E406" s="13"/>
@@ -9491,7 +9491,7 @@
       <c r="A407" s="29"/>
       <c r="B407" s="29"/>
       <c r="C407" s="26"/>
-      <c r="D407" s="3" t="s">
+      <c r="D407" s="55" t="s">
         <v>346</v>
       </c>
       <c r="E407" s="13"/>
@@ -9502,7 +9502,7 @@
       <c r="A408" s="29"/>
       <c r="B408" s="29"/>
       <c r="C408" s="26"/>
-      <c r="D408" s="3" t="s">
+      <c r="D408" s="55" t="s">
         <v>347</v>
       </c>
       <c r="E408" s="13"/>
@@ -9513,7 +9513,7 @@
       <c r="A409" s="29"/>
       <c r="B409" s="29"/>
       <c r="C409" s="26"/>
-      <c r="D409" s="3" t="s">
+      <c r="D409" s="55" t="s">
         <v>348</v>
       </c>
       <c r="E409" s="13"/>
@@ -9546,7 +9546,7 @@
       <c r="A412" s="29"/>
       <c r="B412" s="29"/>
       <c r="C412" s="26"/>
-      <c r="D412" s="3" t="s">
+      <c r="D412" s="55" t="s">
         <v>351</v>
       </c>
       <c r="E412" s="13"/>
@@ -9601,7 +9601,7 @@
       <c r="A417" s="29"/>
       <c r="B417" s="29"/>
       <c r="C417" s="26"/>
-      <c r="D417" s="3" t="s">
+      <c r="D417" s="55" t="s">
         <v>356</v>
       </c>
       <c r="E417" s="13"/>
@@ -9634,7 +9634,7 @@
       <c r="A420" s="29"/>
       <c r="B420" s="29"/>
       <c r="C420" s="26"/>
-      <c r="D420" s="3" t="s">
+      <c r="D420" s="55" t="s">
         <v>359</v>
       </c>
       <c r="E420" s="13"/>
@@ -9645,7 +9645,7 @@
       <c r="A421" s="29"/>
       <c r="B421" s="29"/>
       <c r="C421" s="26"/>
-      <c r="D421" s="3" t="s">
+      <c r="D421" s="55" t="s">
         <v>360</v>
       </c>
       <c r="E421" s="13"/>
@@ -9656,7 +9656,7 @@
       <c r="A422" s="29"/>
       <c r="B422" s="29"/>
       <c r="C422" s="26"/>
-      <c r="D422" s="3" t="s">
+      <c r="D422" s="55" t="s">
         <v>361</v>
       </c>
       <c r="E422" s="13"/>
@@ -9667,7 +9667,7 @@
       <c r="A423" s="29"/>
       <c r="B423" s="29"/>
       <c r="C423" s="26"/>
-      <c r="D423" s="3" t="s">
+      <c r="D423" s="55" t="s">
         <v>362</v>
       </c>
       <c r="E423" s="13"/>
@@ -9678,7 +9678,7 @@
       <c r="A424" s="29"/>
       <c r="B424" s="29"/>
       <c r="C424" s="26"/>
-      <c r="D424" s="3" t="s">
+      <c r="D424" s="55" t="s">
         <v>363</v>
       </c>
       <c r="E424" s="13"/>
@@ -9744,7 +9744,7 @@
       <c r="A430" s="29"/>
       <c r="B430" s="29"/>
       <c r="C430" s="26"/>
-      <c r="D430" s="3" t="s">
+      <c r="D430" s="55" t="s">
         <v>369</v>
       </c>
       <c r="E430" s="13"/>
@@ -9755,7 +9755,7 @@
       <c r="A431" s="29"/>
       <c r="B431" s="29"/>
       <c r="C431" s="26"/>
-      <c r="D431" s="3" t="s">
+      <c r="D431" s="55" t="s">
         <v>370</v>
       </c>
       <c r="E431" s="13"/>
@@ -9766,7 +9766,7 @@
       <c r="A432" s="29"/>
       <c r="B432" s="29"/>
       <c r="C432" s="27"/>
-      <c r="D432" s="19" t="s">
+      <c r="D432" s="54" t="s">
         <v>785</v>
       </c>
       <c r="E432" s="12"/>
@@ -9788,7 +9788,7 @@
       <c r="A434" s="29"/>
       <c r="B434" s="29"/>
       <c r="C434" s="27"/>
-      <c r="D434" s="19" t="s">
+      <c r="D434" s="54" t="s">
         <v>786</v>
       </c>
       <c r="E434" s="12"/>
@@ -9799,7 +9799,7 @@
       <c r="A435" s="29"/>
       <c r="B435" s="29"/>
       <c r="C435" s="27"/>
-      <c r="D435" s="19" t="s">
+      <c r="D435" s="54" t="s">
         <v>787</v>
       </c>
       <c r="E435" s="12"/>
@@ -9810,7 +9810,7 @@
       <c r="A436" s="29"/>
       <c r="B436" s="29"/>
       <c r="C436" s="27"/>
-      <c r="D436" s="19" t="s">
+      <c r="D436" s="54" t="s">
         <v>788</v>
       </c>
       <c r="E436" s="12"/>
@@ -9821,7 +9821,7 @@
       <c r="A437" s="29"/>
       <c r="B437" s="29"/>
       <c r="C437" s="27"/>
-      <c r="D437" s="19" t="s">
+      <c r="D437" s="54" t="s">
         <v>789</v>
       </c>
       <c r="E437" s="12"/>
@@ -9865,7 +9865,7 @@
       <c r="A441" s="29"/>
       <c r="B441" s="29"/>
       <c r="C441" s="27"/>
-      <c r="D441" s="19" t="s">
+      <c r="D441" s="54" t="s">
         <v>790</v>
       </c>
       <c r="E441" s="12"/>
@@ -9876,7 +9876,7 @@
       <c r="A442" s="29"/>
       <c r="B442" s="29"/>
       <c r="C442" s="27"/>
-      <c r="D442" s="19" t="s">
+      <c r="D442" s="54" t="s">
         <v>791</v>
       </c>
       <c r="E442" s="12"/>
@@ -9887,7 +9887,7 @@
       <c r="A443" s="29"/>
       <c r="B443" s="29"/>
       <c r="C443" s="27"/>
-      <c r="D443" s="19" t="s">
+      <c r="D443" s="54" t="s">
         <v>792</v>
       </c>
       <c r="E443" s="12"/>
@@ -9920,7 +9920,7 @@
       <c r="A446" s="29"/>
       <c r="B446" s="29"/>
       <c r="C446" s="27"/>
-      <c r="D446" s="19" t="s">
+      <c r="D446" s="54" t="s">
         <v>375</v>
       </c>
       <c r="E446" s="12"/>
@@ -10096,7 +10096,7 @@
       <c r="A462" s="29"/>
       <c r="B462" s="29"/>
       <c r="C462" s="27"/>
-      <c r="D462" s="19" t="s">
+      <c r="D462" s="54" t="s">
         <v>391</v>
       </c>
       <c r="E462" s="12"/>
@@ -10107,7 +10107,7 @@
       <c r="A463" s="29"/>
       <c r="B463" s="29"/>
       <c r="C463" s="27"/>
-      <c r="D463" s="19" t="s">
+      <c r="D463" s="54" t="s">
         <v>795</v>
       </c>
       <c r="E463" s="12"/>
@@ -10118,7 +10118,7 @@
       <c r="A464" s="29"/>
       <c r="B464" s="29"/>
       <c r="C464" s="27"/>
-      <c r="D464" s="19" t="s">
+      <c r="D464" s="54" t="s">
         <v>796</v>
       </c>
       <c r="E464" s="12"/>
@@ -10129,7 +10129,7 @@
       <c r="A465" s="29"/>
       <c r="B465" s="29"/>
       <c r="C465" s="27"/>
-      <c r="D465" s="19" t="s">
+      <c r="D465" s="54" t="s">
         <v>797</v>
       </c>
       <c r="E465" s="12"/>
@@ -10140,7 +10140,7 @@
       <c r="A466" s="29"/>
       <c r="B466" s="29"/>
       <c r="C466" s="27"/>
-      <c r="D466" s="19" t="s">
+      <c r="D466" s="54" t="s">
         <v>798</v>
       </c>
       <c r="E466" s="12"/>
@@ -10151,7 +10151,7 @@
       <c r="A467" s="29"/>
       <c r="B467" s="29"/>
       <c r="C467" s="27"/>
-      <c r="D467" s="19" t="s">
+      <c r="D467" s="54" t="s">
         <v>392</v>
       </c>
       <c r="E467" s="12"/>
@@ -10162,7 +10162,7 @@
       <c r="A468" s="29"/>
       <c r="B468" s="29"/>
       <c r="C468" s="27"/>
-      <c r="D468" s="19" t="s">
+      <c r="D468" s="54" t="s">
         <v>393</v>
       </c>
       <c r="E468" s="12"/>
@@ -10173,7 +10173,7 @@
       <c r="A469" s="29"/>
       <c r="B469" s="29"/>
       <c r="C469" s="27"/>
-      <c r="D469" s="19" t="s">
+      <c r="D469" s="54" t="s">
         <v>394</v>
       </c>
       <c r="E469" s="12"/>
@@ -10184,7 +10184,7 @@
       <c r="A470" s="29"/>
       <c r="B470" s="29"/>
       <c r="C470" s="27"/>
-      <c r="D470" s="19" t="s">
+      <c r="D470" s="54" t="s">
         <v>395</v>
       </c>
       <c r="E470" s="12"/>
@@ -10195,7 +10195,7 @@
       <c r="A471" s="29"/>
       <c r="B471" s="29"/>
       <c r="C471" s="27"/>
-      <c r="D471" s="19" t="s">
+      <c r="D471" s="54" t="s">
         <v>396</v>
       </c>
       <c r="E471" s="12"/>
@@ -10206,7 +10206,7 @@
       <c r="A472" s="29"/>
       <c r="B472" s="29"/>
       <c r="C472" s="27"/>
-      <c r="D472" s="19" t="s">
+      <c r="D472" s="54" t="s">
         <v>397</v>
       </c>
       <c r="E472" s="12"/>
@@ -10217,7 +10217,7 @@
       <c r="A473" s="29"/>
       <c r="B473" s="29"/>
       <c r="C473" s="27"/>
-      <c r="D473" s="19" t="s">
+      <c r="D473" s="54" t="s">
         <v>398</v>
       </c>
       <c r="E473" s="12"/>
@@ -10228,7 +10228,7 @@
       <c r="A474" s="29"/>
       <c r="B474" s="29"/>
       <c r="C474" s="27"/>
-      <c r="D474" s="19" t="s">
+      <c r="D474" s="54" t="s">
         <v>799</v>
       </c>
       <c r="E474" s="12"/>
@@ -10239,7 +10239,7 @@
       <c r="A475" s="29"/>
       <c r="B475" s="29"/>
       <c r="C475" s="27"/>
-      <c r="D475" s="19" t="s">
+      <c r="D475" s="54" t="s">
         <v>800</v>
       </c>
       <c r="E475" s="12"/>
@@ -10250,7 +10250,7 @@
       <c r="A476" s="29"/>
       <c r="B476" s="29"/>
       <c r="C476" s="27"/>
-      <c r="D476" s="19" t="s">
+      <c r="D476" s="54" t="s">
         <v>801</v>
       </c>
       <c r="E476" s="12"/>
@@ -10261,7 +10261,7 @@
       <c r="A477" s="29"/>
       <c r="B477" s="29"/>
       <c r="C477" s="27"/>
-      <c r="D477" s="19" t="s">
+      <c r="D477" s="54" t="s">
         <v>802</v>
       </c>
       <c r="E477" s="12"/>
@@ -10272,7 +10272,7 @@
       <c r="A478" s="29"/>
       <c r="B478" s="29"/>
       <c r="C478" s="27"/>
-      <c r="D478" s="19" t="s">
+      <c r="D478" s="54" t="s">
         <v>399</v>
       </c>
       <c r="E478" s="12"/>
@@ -10283,7 +10283,7 @@
       <c r="A479" s="29"/>
       <c r="B479" s="29"/>
       <c r="C479" s="27"/>
-      <c r="D479" s="19" t="s">
+      <c r="D479" s="54" t="s">
         <v>400</v>
       </c>
       <c r="E479" s="12"/>
@@ -10294,7 +10294,7 @@
       <c r="A480" s="29"/>
       <c r="B480" s="29"/>
       <c r="C480" s="27"/>
-      <c r="D480" s="19" t="s">
+      <c r="D480" s="54" t="s">
         <v>803</v>
       </c>
       <c r="E480" s="12"/>
@@ -10305,7 +10305,7 @@
       <c r="A481" s="29"/>
       <c r="B481" s="29"/>
       <c r="C481" s="27"/>
-      <c r="D481" s="19" t="s">
+      <c r="D481" s="54" t="s">
         <v>804</v>
       </c>
       <c r="E481" s="12"/>
@@ -10316,7 +10316,7 @@
       <c r="A482" s="29"/>
       <c r="B482" s="29"/>
       <c r="C482" s="27"/>
-      <c r="D482" s="19" t="s">
+      <c r="D482" s="54" t="s">
         <v>805</v>
       </c>
       <c r="E482" s="12"/>
@@ -10327,7 +10327,7 @@
       <c r="A483" s="29"/>
       <c r="B483" s="29"/>
       <c r="C483" s="27"/>
-      <c r="D483" s="19" t="s">
+      <c r="D483" s="54" t="s">
         <v>401</v>
       </c>
       <c r="E483" s="12"/>
@@ -10338,7 +10338,7 @@
       <c r="A484" s="29"/>
       <c r="B484" s="29"/>
       <c r="C484" s="27"/>
-      <c r="D484" s="19" t="s">
+      <c r="D484" s="54" t="s">
         <v>806</v>
       </c>
       <c r="E484" s="12"/>
@@ -10349,7 +10349,7 @@
       <c r="A485" s="29"/>
       <c r="B485" s="29"/>
       <c r="C485" s="27"/>
-      <c r="D485" s="19" t="s">
+      <c r="D485" s="54" t="s">
         <v>807</v>
       </c>
       <c r="E485" s="12"/>
@@ -10371,7 +10371,7 @@
       <c r="A487" s="29"/>
       <c r="B487" s="29"/>
       <c r="C487" s="27"/>
-      <c r="D487" s="19" t="s">
+      <c r="D487" s="54" t="s">
         <v>808</v>
       </c>
       <c r="E487" s="12"/>
@@ -10382,7 +10382,7 @@
       <c r="A488" s="29"/>
       <c r="B488" s="29"/>
       <c r="C488" s="27"/>
-      <c r="D488" s="19" t="s">
+      <c r="D488" s="54" t="s">
         <v>809</v>
       </c>
       <c r="E488" s="12"/>
@@ -10393,7 +10393,7 @@
       <c r="A489" s="29"/>
       <c r="B489" s="29"/>
       <c r="C489" s="27"/>
-      <c r="D489" s="19" t="s">
+      <c r="D489" s="54" t="s">
         <v>810</v>
       </c>
       <c r="E489" s="12"/>
@@ -10404,7 +10404,7 @@
       <c r="A490" s="29"/>
       <c r="B490" s="29"/>
       <c r="C490" s="27"/>
-      <c r="D490" s="19" t="s">
+      <c r="D490" s="54" t="s">
         <v>811</v>
       </c>
       <c r="E490" s="12"/>
@@ -10426,7 +10426,7 @@
       <c r="A492" s="29"/>
       <c r="B492" s="29"/>
       <c r="C492" s="27"/>
-      <c r="D492" s="19" t="s">
+      <c r="D492" s="54" t="s">
         <v>404</v>
       </c>
       <c r="E492" s="12"/>
@@ -10437,7 +10437,7 @@
       <c r="A493" s="29"/>
       <c r="B493" s="29"/>
       <c r="C493" s="27"/>
-      <c r="D493" s="19" t="s">
+      <c r="D493" s="54" t="s">
         <v>405</v>
       </c>
       <c r="E493" s="12"/>
@@ -10448,7 +10448,7 @@
       <c r="A494" s="29"/>
       <c r="B494" s="29"/>
       <c r="C494" s="27"/>
-      <c r="D494" s="19" t="s">
+      <c r="D494" s="54" t="s">
         <v>812</v>
       </c>
       <c r="E494" s="12"/>
@@ -10459,7 +10459,7 @@
       <c r="A495" s="29"/>
       <c r="B495" s="29"/>
       <c r="C495" s="27"/>
-      <c r="D495" s="19" t="s">
+      <c r="D495" s="54" t="s">
         <v>813</v>
       </c>
       <c r="E495" s="12"/>
@@ -10470,7 +10470,7 @@
       <c r="A496" s="29"/>
       <c r="B496" s="29"/>
       <c r="C496" s="27"/>
-      <c r="D496" s="19" t="s">
+      <c r="D496" s="54" t="s">
         <v>406</v>
       </c>
       <c r="E496" s="12"/>
@@ -10481,7 +10481,7 @@
       <c r="A497" s="29"/>
       <c r="B497" s="29"/>
       <c r="C497" s="27"/>
-      <c r="D497" s="19" t="s">
+      <c r="D497" s="54" t="s">
         <v>407</v>
       </c>
       <c r="E497" s="12"/>
@@ -10492,7 +10492,7 @@
       <c r="A498" s="29"/>
       <c r="B498" s="29"/>
       <c r="C498" s="27"/>
-      <c r="D498" s="19" t="s">
+      <c r="D498" s="54" t="s">
         <v>408</v>
       </c>
       <c r="E498" s="12"/>
@@ -10503,7 +10503,7 @@
       <c r="A499" s="29"/>
       <c r="B499" s="29"/>
       <c r="C499" s="27"/>
-      <c r="D499" s="19" t="s">
+      <c r="D499" s="54" t="s">
         <v>814</v>
       </c>
       <c r="E499" s="12"/>
@@ -10514,7 +10514,7 @@
       <c r="A500" s="29"/>
       <c r="B500" s="29"/>
       <c r="C500" s="27"/>
-      <c r="D500" s="19" t="s">
+      <c r="D500" s="54" t="s">
         <v>815</v>
       </c>
       <c r="E500" s="12"/>
@@ -10525,7 +10525,7 @@
       <c r="A501" s="29"/>
       <c r="B501" s="29"/>
       <c r="C501" s="27"/>
-      <c r="D501" s="19" t="s">
+      <c r="D501" s="54" t="s">
         <v>816</v>
       </c>
       <c r="E501" s="12"/>
@@ -10547,7 +10547,7 @@
       <c r="A503" s="29"/>
       <c r="B503" s="29"/>
       <c r="C503" s="27"/>
-      <c r="D503" s="19" t="s">
+      <c r="D503" s="54" t="s">
         <v>817</v>
       </c>
       <c r="E503" s="12"/>
@@ -10558,7 +10558,7 @@
       <c r="A504" s="29"/>
       <c r="B504" s="29"/>
       <c r="C504" s="27"/>
-      <c r="D504" s="19" t="s">
+      <c r="D504" s="54" t="s">
         <v>818</v>
       </c>
       <c r="E504" s="12"/>
@@ -10569,7 +10569,7 @@
       <c r="A505" s="29"/>
       <c r="B505" s="29"/>
       <c r="C505" s="27"/>
-      <c r="D505" s="19" t="s">
+      <c r="D505" s="54" t="s">
         <v>819</v>
       </c>
       <c r="E505" s="12"/>
@@ -10580,7 +10580,7 @@
       <c r="A506" s="29"/>
       <c r="B506" s="29"/>
       <c r="C506" s="27"/>
-      <c r="D506" s="19" t="s">
+      <c r="D506" s="54" t="s">
         <v>820</v>
       </c>
       <c r="E506" s="12"/>
@@ -10591,7 +10591,7 @@
       <c r="A507" s="29"/>
       <c r="B507" s="29"/>
       <c r="C507" s="27"/>
-      <c r="D507" s="19" t="s">
+      <c r="D507" s="54" t="s">
         <v>821</v>
       </c>
       <c r="E507" s="12"/>
@@ -10602,7 +10602,7 @@
       <c r="A508" s="29"/>
       <c r="B508" s="29"/>
       <c r="C508" s="27"/>
-      <c r="D508" s="19" t="s">
+      <c r="D508" s="54" t="s">
         <v>822</v>
       </c>
       <c r="E508" s="12"/>
@@ -10613,7 +10613,7 @@
       <c r="A509" s="29"/>
       <c r="B509" s="29"/>
       <c r="C509" s="27"/>
-      <c r="D509" s="19" t="s">
+      <c r="D509" s="54" t="s">
         <v>823</v>
       </c>
       <c r="E509" s="12"/>
@@ -10624,7 +10624,7 @@
       <c r="A510" s="29"/>
       <c r="B510" s="29"/>
       <c r="C510" s="27"/>
-      <c r="D510" s="19" t="s">
+      <c r="D510" s="54" t="s">
         <v>824</v>
       </c>
       <c r="E510" s="12"/>
@@ -10646,7 +10646,7 @@
       <c r="A512" s="29"/>
       <c r="B512" s="29"/>
       <c r="C512" s="27"/>
-      <c r="D512" s="19" t="s">
+      <c r="D512" s="54" t="s">
         <v>410</v>
       </c>
       <c r="E512" s="12"/>
@@ -10657,7 +10657,7 @@
       <c r="A513" s="29"/>
       <c r="B513" s="29"/>
       <c r="C513" s="27"/>
-      <c r="D513" s="19" t="s">
+      <c r="D513" s="54" t="s">
         <v>826</v>
       </c>
       <c r="E513" s="12"/>
@@ -10690,7 +10690,7 @@
       <c r="A516" s="29"/>
       <c r="B516" s="29"/>
       <c r="C516" s="27"/>
-      <c r="D516" s="19" t="s">
+      <c r="D516" s="54" t="s">
         <v>828</v>
       </c>
       <c r="E516" s="12"/>
@@ -10745,7 +10745,7 @@
       <c r="A521" s="29"/>
       <c r="B521" s="29"/>
       <c r="C521" s="27"/>
-      <c r="D521" s="19" t="s">
+      <c r="D521" s="54" t="s">
         <v>412</v>
       </c>
       <c r="E521" s="12"/>
@@ -10756,7 +10756,7 @@
       <c r="A522" s="29"/>
       <c r="B522" s="29"/>
       <c r="C522" s="27"/>
-      <c r="D522" s="19" t="s">
+      <c r="D522" s="54" t="s">
         <v>413</v>
       </c>
       <c r="E522" s="12"/>
@@ -10767,7 +10767,7 @@
       <c r="A523" s="29"/>
       <c r="B523" s="29"/>
       <c r="C523" s="27"/>
-      <c r="D523" s="19" t="s">
+      <c r="D523" s="54" t="s">
         <v>414</v>
       </c>
       <c r="E523" s="12"/>
@@ -10778,7 +10778,7 @@
       <c r="A524" s="29"/>
       <c r="B524" s="29"/>
       <c r="C524" s="27"/>
-      <c r="D524" s="19" t="s">
+      <c r="D524" s="54" t="s">
         <v>833</v>
       </c>
       <c r="E524" s="12"/>
@@ -10789,7 +10789,7 @@
       <c r="A525" s="29"/>
       <c r="B525" s="29"/>
       <c r="C525" s="27"/>
-      <c r="D525" s="19" t="s">
+      <c r="D525" s="54" t="s">
         <v>834</v>
       </c>
       <c r="E525" s="12"/>
@@ -10800,7 +10800,7 @@
       <c r="A526" s="29"/>
       <c r="B526" s="29"/>
       <c r="C526" s="27"/>
-      <c r="D526" s="19" t="s">
+      <c r="D526" s="54" t="s">
         <v>835</v>
       </c>
       <c r="E526" s="12"/>
@@ -10822,7 +10822,7 @@
       <c r="A528" s="29"/>
       <c r="B528" s="29"/>
       <c r="C528" s="27"/>
-      <c r="D528" s="19" t="s">
+      <c r="D528" s="54" t="s">
         <v>836</v>
       </c>
       <c r="E528" s="12"/>
@@ -10866,7 +10866,7 @@
       <c r="A532" s="29"/>
       <c r="B532" s="29"/>
       <c r="C532" s="27"/>
-      <c r="D532" s="19" t="s">
+      <c r="D532" s="54" t="s">
         <v>839</v>
       </c>
       <c r="E532" s="12"/>
@@ -10877,7 +10877,7 @@
       <c r="A533" s="29"/>
       <c r="B533" s="29"/>
       <c r="C533" s="27"/>
-      <c r="D533" s="19" t="s">
+      <c r="D533" s="54" t="s">
         <v>840</v>
       </c>
       <c r="E533" s="12"/>
@@ -10921,7 +10921,7 @@
       <c r="A537" s="29"/>
       <c r="B537" s="29"/>
       <c r="C537" s="27"/>
-      <c r="D537" s="19" t="s">
+      <c r="D537" s="54" t="s">
         <v>418</v>
       </c>
       <c r="E537" s="12"/>
@@ -10967,7 +10967,7 @@
       <c r="A541" s="29"/>
       <c r="B541" s="29"/>
       <c r="C541" s="26"/>
-      <c r="D541" s="3" t="s">
+      <c r="D541" s="55" t="s">
         <v>421</v>
       </c>
       <c r="E541" s="13"/>
@@ -11125,7 +11125,7 @@
       <c r="A555" s="29"/>
       <c r="B555" s="29"/>
       <c r="C555" s="26"/>
-      <c r="D555" s="3" t="s">
+      <c r="D555" s="55" t="s">
         <v>435</v>
       </c>
       <c r="E555" s="13"/>
@@ -11136,7 +11136,7 @@
       <c r="A556" s="29"/>
       <c r="B556" s="29"/>
       <c r="C556" s="26"/>
-      <c r="D556" s="3" t="s">
+      <c r="D556" s="55" t="s">
         <v>436</v>
       </c>
       <c r="E556" s="13"/>
@@ -11158,7 +11158,7 @@
       <c r="A558" s="29"/>
       <c r="B558" s="29"/>
       <c r="C558" s="26"/>
-      <c r="D558" s="3" t="s">
+      <c r="D558" s="55" t="s">
         <v>438</v>
       </c>
       <c r="E558" s="13"/>
@@ -11268,7 +11268,7 @@
       <c r="A568" s="29"/>
       <c r="B568" s="29"/>
       <c r="C568" s="26"/>
-      <c r="D568" s="3" t="s">
+      <c r="D568" s="55" t="s">
         <v>448</v>
       </c>
       <c r="E568" s="13"/>
@@ -11279,7 +11279,7 @@
       <c r="A569" s="29"/>
       <c r="B569" s="29"/>
       <c r="C569" s="26"/>
-      <c r="D569" s="3" t="s">
+      <c r="D569" s="55" t="s">
         <v>449</v>
       </c>
       <c r="E569" s="13"/>
@@ -11394,7 +11394,7 @@
       <c r="A580" s="29"/>
       <c r="B580" s="29"/>
       <c r="C580" s="26"/>
-      <c r="D580" s="2" t="s">
+      <c r="D580" s="56" t="s">
         <v>457</v>
       </c>
       <c r="E580" s="15"/>
@@ -11405,7 +11405,7 @@
       <c r="A581" s="29"/>
       <c r="B581" s="29"/>
       <c r="C581" s="27"/>
-      <c r="D581" s="19" t="s">
+      <c r="D581" s="54" t="s">
         <v>458</v>
       </c>
       <c r="E581" s="12"/>
@@ -11416,7 +11416,7 @@
       <c r="A582" s="29"/>
       <c r="B582" s="29"/>
       <c r="C582" s="27"/>
-      <c r="D582" s="19" t="s">
+      <c r="D582" s="54" t="s">
         <v>459</v>
       </c>
       <c r="E582" s="12"/>
@@ -11427,7 +11427,7 @@
       <c r="A583" s="29"/>
       <c r="B583" s="29"/>
       <c r="C583" s="27"/>
-      <c r="D583" s="19" t="s">
+      <c r="D583" s="54" t="s">
         <v>460</v>
       </c>
       <c r="E583" s="12"/>
@@ -11438,7 +11438,7 @@
       <c r="A584" s="29"/>
       <c r="B584" s="29"/>
       <c r="C584" s="27"/>
-      <c r="D584" s="19" t="s">
+      <c r="D584" s="54" t="s">
         <v>461</v>
       </c>
       <c r="E584" s="12"/>
@@ -11449,7 +11449,7 @@
       <c r="A585" s="29"/>
       <c r="B585" s="29"/>
       <c r="C585" s="27"/>
-      <c r="D585" s="19" t="s">
+      <c r="D585" s="54" t="s">
         <v>462</v>
       </c>
       <c r="E585" s="12"/>
@@ -11460,7 +11460,7 @@
       <c r="A586" s="29"/>
       <c r="B586" s="29"/>
       <c r="C586" s="27"/>
-      <c r="D586" s="19" t="s">
+      <c r="D586" s="54" t="s">
         <v>463</v>
       </c>
       <c r="E586" s="12"/>
@@ -11471,7 +11471,7 @@
       <c r="A587" s="29"/>
       <c r="B587" s="29"/>
       <c r="C587" s="27"/>
-      <c r="D587" s="19" t="s">
+      <c r="D587" s="54" t="s">
         <v>464</v>
       </c>
       <c r="E587" s="12"/>
@@ -11482,7 +11482,7 @@
       <c r="A588" s="29"/>
       <c r="B588" s="29"/>
       <c r="C588" s="27"/>
-      <c r="D588" s="19" t="s">
+      <c r="D588" s="54" t="s">
         <v>465</v>
       </c>
       <c r="E588" s="12"/>
@@ -11493,7 +11493,7 @@
       <c r="A589" s="29"/>
       <c r="B589" s="29"/>
       <c r="C589" s="27"/>
-      <c r="D589" s="19" t="s">
+      <c r="D589" s="54" t="s">
         <v>466</v>
       </c>
       <c r="E589" s="12"/>
@@ -11504,7 +11504,7 @@
       <c r="A590" s="29"/>
       <c r="B590" s="29"/>
       <c r="C590" s="27"/>
-      <c r="D590" s="19" t="s">
+      <c r="D590" s="54" t="s">
         <v>467</v>
       </c>
       <c r="E590" s="12"/>
@@ -11515,7 +11515,7 @@
       <c r="A591" s="29"/>
       <c r="B591" s="29"/>
       <c r="C591" s="27"/>
-      <c r="D591" s="19" t="s">
+      <c r="D591" s="54" t="s">
         <v>468</v>
       </c>
       <c r="E591" s="12"/>
@@ -11526,7 +11526,7 @@
       <c r="A592" s="29"/>
       <c r="B592" s="29"/>
       <c r="C592" s="27"/>
-      <c r="D592" s="19" t="s">
+      <c r="D592" s="46" t="s">
         <v>469</v>
       </c>
       <c r="E592" s="12"/>
@@ -11537,7 +11537,7 @@
       <c r="A593" s="29"/>
       <c r="B593" s="29"/>
       <c r="C593" s="27"/>
-      <c r="D593" s="19" t="s">
+      <c r="D593" s="46" t="s">
         <v>470</v>
       </c>
       <c r="E593" s="12"/>
@@ -11548,7 +11548,7 @@
       <c r="A594" s="29"/>
       <c r="B594" s="29"/>
       <c r="C594" s="27"/>
-      <c r="D594" s="19" t="s">
+      <c r="D594" s="54" t="s">
         <v>471</v>
       </c>
       <c r="E594" s="12"/>
@@ -11559,7 +11559,7 @@
       <c r="A595" s="29"/>
       <c r="B595" s="29"/>
       <c r="C595" s="27"/>
-      <c r="D595" s="19" t="s">
+      <c r="D595" s="46" t="s">
         <v>472</v>
       </c>
       <c r="E595" s="12"/>
@@ -11570,7 +11570,7 @@
       <c r="A596" s="29"/>
       <c r="B596" s="29"/>
       <c r="C596" s="27"/>
-      <c r="D596" s="19" t="s">
+      <c r="D596" s="54" t="s">
         <v>473</v>
       </c>
       <c r="E596" s="12"/>
@@ -11581,7 +11581,7 @@
       <c r="A597" s="29"/>
       <c r="B597" s="29"/>
       <c r="C597" s="27"/>
-      <c r="D597" s="19" t="s">
+      <c r="D597" s="54" t="s">
         <v>474</v>
       </c>
       <c r="E597" s="12"/>
@@ -11592,7 +11592,7 @@
       <c r="A598" s="29"/>
       <c r="B598" s="29"/>
       <c r="C598" s="27"/>
-      <c r="D598" s="19" t="s">
+      <c r="D598" s="54" t="s">
         <v>475</v>
       </c>
       <c r="E598" s="12"/>
@@ -11603,7 +11603,7 @@
       <c r="A599" s="29"/>
       <c r="B599" s="29"/>
       <c r="C599" s="27"/>
-      <c r="D599" s="19" t="s">
+      <c r="D599" s="54" t="s">
         <v>476</v>
       </c>
       <c r="E599" s="12"/>
@@ -11614,7 +11614,7 @@
       <c r="A600" s="29"/>
       <c r="B600" s="29"/>
       <c r="C600" s="27"/>
-      <c r="D600" s="19" t="s">
+      <c r="D600" s="54" t="s">
         <v>477</v>
       </c>
       <c r="E600" s="12"/>
@@ -11625,7 +11625,7 @@
       <c r="A601" s="29"/>
       <c r="B601" s="29"/>
       <c r="C601" s="27"/>
-      <c r="D601" s="19" t="s">
+      <c r="D601" s="54" t="s">
         <v>478</v>
       </c>
       <c r="E601" s="12"/>
@@ -11636,7 +11636,7 @@
       <c r="A602" s="29"/>
       <c r="B602" s="29"/>
       <c r="C602" s="27"/>
-      <c r="D602" s="19" t="s">
+      <c r="D602" s="46" t="s">
         <v>479</v>
       </c>
       <c r="E602" s="12"/>
@@ -11647,7 +11647,7 @@
       <c r="A603" s="29"/>
       <c r="B603" s="29"/>
       <c r="C603" s="27"/>
-      <c r="D603" s="19" t="s">
+      <c r="D603" s="46" t="s">
         <v>480</v>
       </c>
       <c r="E603" s="12"/>
@@ -11658,7 +11658,7 @@
       <c r="A604" s="29"/>
       <c r="B604" s="29"/>
       <c r="C604" s="27"/>
-      <c r="D604" s="19" t="s">
+      <c r="D604" s="54" t="s">
         <v>481</v>
       </c>
       <c r="E604" s="12"/>
@@ -11669,7 +11669,7 @@
       <c r="A605" s="29"/>
       <c r="B605" s="29"/>
       <c r="C605" s="27"/>
-      <c r="D605" s="19" t="s">
+      <c r="D605" s="54" t="s">
         <v>482</v>
       </c>
       <c r="E605" s="12"/>
@@ -11680,7 +11680,7 @@
       <c r="A606" s="29"/>
       <c r="B606" s="29"/>
       <c r="C606" s="27"/>
-      <c r="D606" s="19" t="s">
+      <c r="D606" s="54" t="s">
         <v>483</v>
       </c>
       <c r="E606" s="12"/>
@@ -15342,26 +15342,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.8">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>869</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
     </row>
     <row r="2" spans="1:18" ht="36">
       <c r="A2" s="31" t="s">
@@ -15400,16 +15400,16 @@
       <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" ht="126" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>877</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="58" t="s">
         <v>878</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="58" t="s">
         <v>880</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="59" t="s">
         <v>881</v>
       </c>
       <c r="E3" s="34">
@@ -15425,10 +15425,10 @@
       <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:18" ht="228" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="34">
         <v>2</v>
       </c>
@@ -15442,10 +15442,10 @@
       <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:18" ht="219.75" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="34">
         <v>3</v>
       </c>
@@ -15461,10 +15461,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="379.5" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="34">
         <v>4</v>
       </c>
@@ -15480,9 +15480,9 @@
       <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="36"/>
     </row>
   </sheetData>
